--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>531946.9265903045</v>
+        <v>527233.0156359401</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791247</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10818649.47263471</v>
+        <v>10816289.55507304</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>44.64173248348063</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.3109164732209</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>11.05617625586945</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.748249201703</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.03638470914573</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>86.40693369061415</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>271.7724558386323</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>22.17237191191719</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>154.2175750819149</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>206.5027199292056</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>231.4838232651524</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>132.6388519335231</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04912082274990865</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595511</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873669</v>
       </c>
       <c r="D11" t="n">
-        <v>158.6305783485259</v>
+        <v>310.5084051007671</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.4793772398891</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372798</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>266.0043965076924</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215419</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.4474895938731</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177856</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681707</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>26.1525977186846</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845443</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.2412393326522</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001149</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.448839703256</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>29.78086129391518</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>2.072684522550194</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.96632965766941</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>118.1310479504541</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1825,7 +1825,7 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422874857</v>
+        <v>6.593776422876545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596575013</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565025</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167857</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196098</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380071</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667982</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644709</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883922</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541126</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658319</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701039111</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656643</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678084</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.077032593616</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="C2" t="n">
-        <v>1583.077032593616</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="D2" t="n">
-        <v>1197.635903810283</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>699.7556982748558</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845419</v>
+        <v>1213.358376884545</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737747</v>
+        <v>1653.397977776874</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043499</v>
       </c>
       <c r="T2" t="n">
-        <v>1925.183841890097</v>
+        <v>1647.155266602915</v>
       </c>
       <c r="U2" t="n">
-        <v>1925.183841890097</v>
+        <v>1647.155266602915</v>
       </c>
       <c r="V2" t="n">
-        <v>1583.077032593616</v>
+        <v>1305.048457306434</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.077032593616</v>
+        <v>1305.048457306434</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.077032593616</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.077032593616</v>
+        <v>1195.643491171867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557376</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1423.897595591876</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591876</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>1940.231660716795</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915703</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1553.184705594345</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1542.016850790437</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1311.899604923723</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="C4" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="D4" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="E4" t="n">
-        <v>554.9324692947405</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="F4" t="n">
-        <v>397.6065345077135</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="X4" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.2236301045415</v>
+        <v>41.50324675633852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.8325843773944</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="C5" t="n">
-        <v>960.8325843773944</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="D5" t="n">
-        <v>960.8325843773944</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793355</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978644</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207957</v>
+        <v>1121.520058314909</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845419</v>
+        <v>1635.122736924598</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043499</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>1870.655869043499</v>
       </c>
       <c r="U5" t="n">
-        <v>1746.775898523736</v>
+        <v>1870.655869043499</v>
       </c>
       <c r="V5" t="n">
-        <v>1746.775898523736</v>
+        <v>1596.138236883264</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.775898523736</v>
+        <v>1596.138236883264</v>
       </c>
       <c r="X5" t="n">
-        <v>1357.323293456793</v>
+        <v>1596.138236883264</v>
       </c>
       <c r="Y5" t="n">
-        <v>960.8325843773944</v>
+        <v>1596.138236883264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>1327.194567652346</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146766</v>
+        <v>1327.194567652346</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1893.918282350297</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1683.855139028938</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.0870313537198</v>
+        <v>500.2813410917774</v>
       </c>
       <c r="C7" t="n">
-        <v>555.0870313537198</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="D7" t="n">
-        <v>399.4539182562345</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="E7" t="n">
-        <v>399.4539182562345</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>789.1673535707367</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>789.1673535707367</v>
+        <v>734.3616633087944</v>
       </c>
       <c r="W7" t="n">
-        <v>789.1673535707367</v>
+        <v>734.3616633087944</v>
       </c>
       <c r="X7" t="n">
-        <v>555.0870313537198</v>
+        <v>500.2813410917774</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.0870313537198</v>
+        <v>500.2813410917774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396.789931183585</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="C8" t="n">
-        <v>1396.789931183585</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.348802400253</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>1011.348802400253</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>594.4543639302304</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>181.2916084182336</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4811,16 +4811,16 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1396.789931183585</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1396.789931183585</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>403.3208459556998</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9949111686728</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.74085726811833</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.74085726811833</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>558.8796580964973</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1558.431545602418</v>
+        <v>1435.837779556536</v>
       </c>
       <c r="C11" t="n">
-        <v>1558.431545602418</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>800.8136995685215</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>470.02644983126</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>470.02644983126</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.782309456373</v>
+        <v>2406.887013975694</v>
       </c>
       <c r="X11" t="n">
-        <v>1883.125979535623</v>
+        <v>2089.230684054944</v>
       </c>
       <c r="Y11" t="n">
-        <v>1558.431545602418</v>
+        <v>1764.536250121739</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.9551552953889</v>
+        <v>242.4137444097671</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5463125075719</v>
+        <v>242.4137444097671</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562805</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616769</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1470.315876442098</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1339.296067770841</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1175.373291085269</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>961.7307744733638</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840484</v>
+        <v>767.5477044403817</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614199</v>
+        <v>556.0135775177531</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905969</v>
+        <v>393.72953044693</v>
       </c>
       <c r="Y13" t="n">
-        <v>474.9551552953889</v>
+        <v>242.4137444097671</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1702.435468430418</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.056242079542</v>
+        <v>1092.310303105548</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.411388442404</v>
+        <v>778.6654494684091</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>778.6654494684091</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>433.5672861445807</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>92.20080577877775</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411573</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2673.484702849575</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X14" t="n">
-        <v>2355.828372928826</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2031.133938995621</v>
+        <v>1742.388000021626</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.8261207086607</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="C16" t="n">
-        <v>123.4172779208438</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="D16" t="n">
-        <v>123.4172779208438</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="E16" t="n">
-        <v>123.4172779208438</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1432.120187614842</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1268.19741092927</v>
+        <v>1246.388542284205</v>
       </c>
       <c r="U16" t="n">
-        <v>1054.554894317364</v>
+        <v>1032.7460256723</v>
       </c>
       <c r="V16" t="n">
-        <v>860.3718242843825</v>
+        <v>838.5629556393183</v>
       </c>
       <c r="W16" t="n">
-        <v>648.837697361754</v>
+        <v>838.5629556393183</v>
       </c>
       <c r="X16" t="n">
-        <v>486.5536502909309</v>
+        <v>676.2789085684952</v>
       </c>
       <c r="Y16" t="n">
-        <v>335.2378642537681</v>
+        <v>524.9631225313324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5534,31 +5534,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924165</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835542</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640371</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185692</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464168</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508749</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146211</v>
+        <v>2293.032006377477</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2844.723727844788</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3192.91121997631</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939835</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929737</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404879</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245276</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.031657165255</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597529</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407234</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374235</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J34" t="n">
-        <v>69.5475482407616</v>
+        <v>149.4335135798903</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898322</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>693.3398934768786</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>876.5295275080878</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1270.762580901357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873661</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387763</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451837</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250221</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273713</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400738</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045818</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027501</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7181,10 +7181,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,10 +7193,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>803.0057595505241</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918056</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666454</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251377</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792988</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.67017068837</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>2071.291039114126</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2075.452993041795</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>2157.288034151737</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926949</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,10 +7573,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7585,34 +7585,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N2" t="n">
-        <v>452.8420031504919</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>389.6133663309292</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>561.055528126942</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>567.4452609440984</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788137</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>379.7393584791205</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>465.3882399439997</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093707</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431205</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>571.8744206036794</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -10200,10 +10200,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10665,16 +10665,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,22 +10899,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
-        <v>377.2173282296772</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>151.877826752241</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905902</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.7701071136281</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.607428808785</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>30.20633577897121</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993883</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465767</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442494</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338911</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456104</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>25.43106936033236</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.35378847353515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.9830462405271</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>294.1380477641133</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>65.74328092687477</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.15250096826215</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.790923296444817e-13</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>945139.6967264961</v>
+        <v>943936.6014989755</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>945139.6967264961</v>
+        <v>943936.6014989755</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>848412.2890906297</v>
+        <v>848412.2890906293</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>848412.2890906294</v>
+        <v>848412.2890906293</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953278.0624354106</v>
+        <v>953278.0624354108</v>
       </c>
     </row>
     <row r="9">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>360664.3561867136</v>
+      </c>
+      <c r="C2" t="n">
         <v>360664.3561867134</v>
       </c>
-      <c r="C2" t="n">
-        <v>360664.3561867136</v>
-      </c>
       <c r="D2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867135</v>
       </c>
       <c r="E2" t="n">
-        <v>318718.0468488015</v>
+        <v>318718.0468488011</v>
       </c>
       <c r="F2" t="n">
-        <v>318718.0468488015</v>
+        <v>318718.0468488016</v>
       </c>
       <c r="G2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="H2" t="n">
-        <v>360664.3561867134</v>
+        <v>360664.356186714</v>
       </c>
       <c r="I2" t="n">
-        <v>360664.3561867134</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="J2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="K2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867136</v>
       </c>
       <c r="L2" t="n">
-        <v>360664.3561867144</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="M2" t="n">
         <v>360664.3561867137</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401319</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539651</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277128</v>
+        <v>27767.69404277111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327253</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327253</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923645</v>
       </c>
       <c r="F4" t="n">
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
+        <v>173460.5839839467</v>
+      </c>
+      <c r="H4" t="n">
         <v>173460.5839839468</v>
-      </c>
-      <c r="H4" t="n">
-        <v>173460.5839839467</v>
       </c>
       <c r="I4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98909.80272917915</v>
+        <v>-94558.35691488444</v>
       </c>
       <c r="C6" t="n">
-        <v>83295.14556267674</v>
+        <v>79300.30011917077</v>
       </c>
       <c r="D6" t="n">
-        <v>76126.82454100534</v>
+        <v>68390.53531761401</v>
       </c>
       <c r="E6" t="n">
-        <v>27707.79818255191</v>
+        <v>27498.06663586212</v>
       </c>
       <c r="F6" t="n">
-        <v>139830.3596565964</v>
+        <v>139620.6281099069</v>
       </c>
       <c r="G6" t="n">
-        <v>81608.67735056533</v>
+        <v>81608.67735056544</v>
       </c>
       <c r="H6" t="n">
-        <v>129034.002887247</v>
+        <v>129034.0028872475</v>
       </c>
       <c r="I6" t="n">
-        <v>129034.002887247</v>
+        <v>129034.0028872473</v>
       </c>
       <c r="J6" t="n">
-        <v>-84007.91471003811</v>
+        <v>-77491.62955546522</v>
       </c>
       <c r="K6" t="n">
-        <v>122794.2344844643</v>
+        <v>122794.2344844642</v>
       </c>
       <c r="L6" t="n">
-        <v>67611.64554984371</v>
+        <v>63562.80833937092</v>
       </c>
       <c r="M6" t="n">
-        <v>86833.17342762428</v>
+        <v>85781.478416436</v>
       </c>
       <c r="N6" t="n">
         <v>129034.0028872472</v>
       </c>
       <c r="O6" t="n">
-        <v>101266.3088444759</v>
+        <v>101266.3088444762</v>
       </c>
       <c r="P6" t="n">
         <v>129034.0028872472</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293148</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924563</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.5800495428748</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>176.6238639326968</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>277.2471625430528</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>209.2584253567742</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>1.254974817686531</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>178.703134285701</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,7 +27622,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>312.1507559440067</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>66.91328536488453</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>153.0416017711634</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>128.3668287586031</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>56.81683179817844</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27856,10 +27856,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150.1028942303465</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>188.2033679956512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28017,22 +28017,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.714360286543</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431648</v>
@@ -29308,19 +29308,19 @@
         <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>86.65052755599481</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>30.27223765901132</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431648</v>
@@ -29536,13 +29536,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,13 +29551,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599589</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683160386</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N34" t="n">
-        <v>94.97643844045137</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224777</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30165,22 +30165,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30402,14 +30402,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668678</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634528086</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N2" t="n">
-        <v>303.7235118127078</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>239.311919090004</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>468.6684060776302</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>482.0731480899318</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>133.1892414995763</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>230.0143068813932</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>373.0011178946878</v>
       </c>
       <c r="N6" t="n">
-        <v>161.705079355204</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>113.782083667694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257277</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.7399700815418</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.8638072167518</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696906</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488432</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>486.5023077495127</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36537,7 +36537,7 @@
         <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>531.1349729017811</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700705</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>438.3550650625836</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>135.5123342397974</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144197</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.637807576515</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>557.264365118496</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055063</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>280.0164728154102</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097885</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>110.3251060326301</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
-        <v>284.5297693407883</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644680569</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
